--- a/biology/Zoologie/Epinephelinae/Epinephelinae.xlsx
+++ b/biology/Zoologie/Epinephelinae/Epinephelinae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La sous-famille des Epinephelinae regroupe des poissons marins appartenant à la famille des Serranidae. Ce groupe contient notamment les mérous.
 </t>
@@ -511,9 +523,11 @@
           <t>Description et caractéristiques</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom vernaculaire « mérou » couvre une partie de l’importante famille des Serranidae : cette famille, très diversifiée, contient des poissons d’aspect assez différent, comme les anthias (sous-famille Anthiinae), les loches, les barbiers ou les serrans (sous-famille Serraninae). La sous-famille des Epinephelinae constitue le principal groupe de « mérous », et compte 22 genres et 87 espèces[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom vernaculaire « mérou » couvre une partie de l’importante famille des Serranidae : cette famille, très diversifiée, contient des poissons d’aspect assez différent, comme les anthias (sous-famille Anthiinae), les loches, les barbiers ou les serrans (sous-famille Serraninae). La sous-famille des Epinephelinae constitue le principal groupe de « mérous », et compte 22 genres et 87 espèces.
 On les rencontre dans les eaux tropicales et tempérées, de 1 à 300 mètres de profondeur. Ils sont tous carnivores : ils se nourrissent de poissons, de crustacés et de mollusques. La plupart des espèces sont hermaphrodite protogyne, ce qui signifie que tous les individus naissent femelle et que certains deviendront mâles quand la situation l’exigera.
 </t>
         </is>
@@ -543,7 +557,9 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">
 			Aethaloperca rogaa
